--- a/clcore_ig/output/StructureDefinition-IdentidadDeGenero.xlsx
+++ b/clcore_ig/output/StructureDefinition-IdentidadDeGenero.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -129,10 +129,10 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl#Patient</t>
-  </si>
-  <si>
-    <t>element:https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl#Practitioner</t>
+    <t>element:Patient</t>
+  </si>
+  <si>
+    <t>element:Practitioner</t>
   </si>
   <si>
     <t>ID</t>
@@ -338,33 +338,17 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSIdentidaddeGenero</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSIdentidaddeGenero</t>
   </si>
 </sst>
 </file>
@@ -687,7 +671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -696,9 +680,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1292,10 +1276,10 @@
         <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1322,26 +1306,26 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>103</v>
@@ -1356,112 +1340,9 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="R7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y7" s="2"/>
-      <c r="Z7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AK7" t="s" s="2">
         <v>102</v>
       </c>
     </row>
